--- a/Docs/Error_Record.xlsx
+++ b/Docs/Error_Record.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Error_URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,6 +42,48 @@
   </si>
   <si>
     <t>Accurate_Output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://d3gqasl9vmjfd8.cloudfront.net/4633f0cf-8eb9-4837-b1ac-fa8ac9d3249f.jpg</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The closest price to the image is not the true price. We should check if the closest image to the price is the target image.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sayplease.com/sites/default/files/2013_home_clean%20lunchbox%20v1.png?1364864151 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sayplease.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output is the closest digit.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sayplease.com/shop</t>
+  </si>
+  <si>
+    <t>The closest(visual distance) price is not the right price. (use xpath distance)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.woot.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sayplease.com/sites/default/files/imagecache/product_thumbnails/Kids33-48web.jpg </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -49,6 +91,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -125,24 +171,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,23 +530,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,10 +564,69 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>499.99</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41.86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
